--- a/docs/default-test-data.xlsx
+++ b/docs/default-test-data.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CONST" sheetId="4" r:id="rId1"/>
     <sheet name="profile" sheetId="1" r:id="rId2"/>
     <sheet name="item" sheetId="2" r:id="rId3"/>
     <sheet name="Profile Dimension Type Cache" sheetId="3" r:id="rId4"/>
+    <sheet name="Item Recommend Cache" sheetId="5" r:id="rId5"/>
+    <sheet name="Item Recommend Point Cache" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +92,82 @@
   </si>
   <si>
     <t>director</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIMENSION_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIMENSION_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIMENSION_AVG_TRUE_POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_1_RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_2_RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_3_RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_4_RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE_RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINAL_RESULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +520,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,7 +560,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,10 +621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -840,10 +918,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -854,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -871,9 +949,23 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
     </row>
@@ -887,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1115,4 +1207,493 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>CONST!B2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f>'Profile Dimension Type Cache'!H2</f>
+        <v>10.498900000000001</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>5.2494500000000004</v>
+      </c>
+      <c r="F2">
+        <f>item!D2</f>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>item!D8</f>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>item!D12</f>
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <f>item!D18</f>
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>E2*F2</f>
+        <v>47.245050000000006</v>
+      </c>
+      <c r="K2">
+        <f>E2*G2</f>
+        <v>26.247250000000001</v>
+      </c>
+      <c r="L2">
+        <f>E2*H2</f>
+        <v>41.995600000000003</v>
+      </c>
+      <c r="M2">
+        <f>E2*I2</f>
+        <v>15.748350000000002</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>68.159899999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>CONST!B2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f>'Profile Dimension Type Cache'!H3</f>
+        <v>6.8327</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">C3*D3</f>
+        <v>3.41635</v>
+      </c>
+      <c r="F3">
+        <f>item!D3</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>item!D13</f>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f>item!D19</f>
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J7" si="1">E3*F3</f>
+        <v>3.41635</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="2">E3*G3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="3">E3*H3</f>
+        <v>17.08175</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="4">E3*I3</f>
+        <v>13.6654</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>63.243699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>CONST!B2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <f>'Profile Dimension Type Cache'!H4</f>
+        <v>3.4996999999999998</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.7498499999999999</v>
+      </c>
+      <c r="F4">
+        <f>item!D4</f>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f>item!D9</f>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f>item!D14</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f>item!D20</f>
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>8.74925</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>6.9993999999999996</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>5.2495499999999993</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>10.499099999999999</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>43.745899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>CONST!B3</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>'Profile Dimension Type Cache'!H5</f>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="F5">
+        <f>item!D5</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>item!D10</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>item!D15</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>item!D22</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>35.579900000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f>CONST!B3</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>'Profile Dimension Type Cache'!H6</f>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="F6">
+        <f>item!D6</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>item!D11</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>item!D16</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>item!D23</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1.1666000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>CONST!B3</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>'Profile Dimension Type Cache'!H7</f>
+        <v>1.4998</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.4998</v>
+      </c>
+      <c r="F7">
+        <f>item!D7</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>item!D17</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>item!D24</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.4998</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>1.4998</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>1.4998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <f>SUM(J2:J7)</f>
+        <v>63.243650000000009</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:M8" si="5">SUM(K2:K7)</f>
+        <v>35.579850000000008</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>68.159899999999993</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>43.745850000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <f>'Item Recommend Cache'!M8</f>
+        <v>43.745850000000004</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE('Item Recommend Cache'!J8:M8)</f>
+        <v>52.682312500000009</v>
+      </c>
+      <c r="C2">
+        <v>0.29160807358613899</v>
+      </c>
+      <c r="D2">
+        <v>0.29160000000000003</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>0.58320000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>